--- a/testing_dir/Bill of Materials and Points List.xlsx
+++ b/testing_dir/Bill of Materials and Points List.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delta\PycharmProjects\Project Tracking Excel Sheet\testing_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB08121-67FB-49C5-809A-468EB6230ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD6FEE-2DE3-4BE4-8099-945562EFEF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24375" yWindow="3135" windowWidth="21600" windowHeight="11295" tabRatio="942" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="390" windowWidth="27030" windowHeight="14130" tabRatio="942" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" r:id="rId1"/>
     <sheet name="DAC-322 WSHP" sheetId="51" r:id="rId2"/>
     <sheet name="DAC-304 Alarm Mon" sheetId="56" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="57" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Bill of Materials'!$A$1:$E$22</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -253,6 +254,9 @@
   </si>
   <si>
     <t>DAC-304 Controller Points List for Alarm Monitoring (Typ. Of 1)</t>
+  </si>
+  <si>
+    <t>DAC-304 Controller Points List for VAV (Typ. Of 9)</t>
   </si>
 </sst>
 </file>
@@ -1991,8 +1995,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2198,4 +2202,176 @@
   <pageSetup scale="74" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1248C66-FBAD-4A3D-A12B-CFE80A17D27B}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testing_dir/Bill of Materials and Points List.xlsx
+++ b/testing_dir/Bill of Materials and Points List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delta\PycharmProjects\Project Tracking Excel Sheet\testing_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FD6FEE-2DE3-4BE4-8099-945562EFEF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD82832-3E0A-4C86-8E37-85976240EC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="390" windowWidth="27030" windowHeight="14130" tabRatio="942" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="1350" windowWidth="27030" windowHeight="14130" tabRatio="942" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
   <si>
     <t>Description</t>
   </si>
@@ -256,7 +256,22 @@
     <t>DAC-304 Controller Points List for Alarm Monitoring (Typ. Of 1)</t>
   </si>
   <si>
-    <t>DAC-304 Controller Points List for VAV (Typ. Of 9)</t>
+    <t>DAC-304 Controller Points List for VAV (Typ. Of 100)</t>
+  </si>
+  <si>
+    <t>Return air TemP (ref)</t>
+  </si>
+  <si>
+    <t>Space temp</t>
+  </si>
+  <si>
+    <t>eZNS Space Temp (calc</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Wall Module Temp</t>
   </si>
 </sst>
 </file>
@@ -935,15 +950,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,48 +1006,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1343,31 +1358,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
@@ -1492,13 +1507,13 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:12" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
@@ -1578,7 +1593,7 @@
       <c r="E16" s="61"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="74" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="63"/>
@@ -1587,7 +1602,7 @@
       <c r="E17" s="63"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="62" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="63"/>
@@ -1596,18 +1611,18 @@
       <c r="E18" s="63"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="61"/>
@@ -1624,18 +1639,18 @@
       <c r="E22" s="61"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
@@ -1739,6 +1754,12 @@
     <row r="122" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A21:E21"/>
@@ -1748,12 +1769,6 @@
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1996,7 +2011,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2206,15 +2221,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1248C66-FBAD-4A3D-A12B-CFE80A17D27B}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="75" t="s">
         <v>30</v>
       </c>
@@ -2225,7 +2249,7 @@
       <c r="F1" s="76"/>
       <c r="G1" s="77"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>54</v>
       </c>
@@ -2236,7 +2260,7 @@
       <c r="F2" s="79"/>
       <c r="G2" s="80"/>
     </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>11</v>
       </c>
@@ -2257,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>4</v>
       </c>
@@ -2265,7 +2289,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="37" t="s">
@@ -2275,10 +2299,10 @@
         <v>29</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
@@ -2296,10 +2320,10 @@
         <v>29</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
@@ -2307,7 +2331,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="24" t="s">
@@ -2317,10 +2341,10 @@
         <v>29</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -2332,10 +2356,10 @@
         <v>29</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53" t="s">
         <v>28</v>
       </c>
@@ -2346,7 +2370,7 @@
       <c r="F8" s="54"/>
       <c r="G8" s="54"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>52</v>
       </c>
@@ -2357,7 +2381,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -2366,6 +2390,36 @@
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
     </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
